--- a/Lista_Cotejo_ServicioSocial.xlsx
+++ b/Lista_Cotejo_ServicioSocial.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beche\OneDrive\Escritorio\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C46367-D7DD-4873-B683-12ED1BBA4DE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{357B69FC-1A6F-4127-89DA-7AFA344CB871}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="124">
   <si>
     <t>¿Existen razones suficientes para crear el método?</t>
   </si>
@@ -277,12 +271,144 @@
   </si>
   <si>
     <t>showModificarReporteWindow(Reporte reporte)</t>
+  </si>
+  <si>
+    <t>FXMLAsignarServicioSocialController</t>
+  </si>
+  <si>
+    <t>private EventHandler&lt;ActionEvent&gt; asignarButtonHandler()</t>
+  </si>
+  <si>
+    <t>FXMLModificarReporteController</t>
+  </si>
+  <si>
+    <t>public void initData(Reporte reporte)</t>
+  </si>
+  <si>
+    <t>public EventHandler&lt;ActionEvent&gt; modificarButtonHandler()</t>
+  </si>
+  <si>
+    <t>FXMLRegistrarProyectoController</t>
+  </si>
+  <si>
+    <t>private EventHandler&lt;MouseEvent&gt; dobleClicSolicitudesTableViewRow()</t>
+  </si>
+  <si>
+    <t>private EventHandler&lt;ActionEvent&gt; registrarButtonHandler()</t>
+  </si>
+  <si>
+    <t>FXMLRegistrarReporteMensualController</t>
+  </si>
+  <si>
+    <t>private EventHandler&lt;ActionEvent&gt; editarButtonHandler()</t>
+  </si>
+  <si>
+    <t>private EventHandler&lt;ActionEvent&gt; cancelarButtonHandler()</t>
+  </si>
+  <si>
+    <t>FXMLRegistrarReporteMensualFormularioController</t>
+  </si>
+  <si>
+    <t>public void initData(Alumno alumno, FechaEntregaReporte fechaEntregaReporte)</t>
+  </si>
+  <si>
+    <t>FXMLSistemaServicioSocialController</t>
+  </si>
+  <si>
+    <t>private EventHandler&lt;ActionEvent&gt; asignarServicioSocialButtonHandler()</t>
+  </si>
+  <si>
+    <t>private EventHandler&lt;ActionEvent&gt; registrarProyectoButtonHandler()</t>
+  </si>
+  <si>
+    <t>private EventHandler&lt;ActionEvent&gt; registrarReporteButtonHandler()</t>
+  </si>
+  <si>
+    <t>private EventHandler&lt;ActionEvent&gt; subirArchivoButtonHandler(</t>
+  </si>
+  <si>
+    <t>FXMLSubirArchivoController</t>
+  </si>
+  <si>
+    <t>public void initData(Alumno alumno, boolean openedAsInclude, String tipoArchivo)</t>
+  </si>
+  <si>
+    <t>private EventHandler&lt;ActionEvent&gt; examinarButtonHandler()</t>
+  </si>
+  <si>
+    <t>private EventHandler&lt;ActionEvent&gt; subirButtonHandler()</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public Database() throws SQLException</t>
+  </si>
+  <si>
+    <t>public Connection getConnection()</t>
+  </si>
+  <si>
+    <t>public void close()</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>public static ArrayList&lt;SQLRow&gt; executeQuery(String sql, Predicate&lt;ArrayList&lt;SQLRow&gt;&gt; result)</t>
+  </si>
+  <si>
+    <t>public static boolean executeQuery(
+        String sql, ArrayList&lt;Object&gt; parameters, Predicate&lt;ArrayList&lt;SQLRow&gt;&gt; result, 
+        BooleanSupplier failure
+    )</t>
+  </si>
+  <si>
+    <t>public static int executeUpdate(String sql, boolean returnId)</t>
+  </si>
+  <si>
+    <t>public static int executeUpdate(String sql, ArrayList&lt;Object&gt; parameters)</t>
+  </si>
+  <si>
+    <t>public static int executeTransactionUpdate(
+        String sql, ArrayList&lt;Object&gt; parameters, 
+        String sqlAfterFirst, ArrayList&lt;Object&gt; parametersAfterFirst
+    )</t>
+  </si>
+  <si>
+    <t>private static ArrayList&lt;SQLRow&gt; retrieveSQLData(ResultSet rs)</t>
+  </si>
+  <si>
+    <t>SQLColumn</t>
+  </si>
+  <si>
+    <t>public SQLColumn(K name, V value)</t>
+  </si>
+  <si>
+    <t>public K getName()</t>
+  </si>
+  <si>
+    <t>public V getValue()</t>
+  </si>
+  <si>
+    <t>SQLRow</t>
+  </si>
+  <si>
+    <t>public SQLRow()</t>
+  </si>
+  <si>
+    <t>public ArrayList&lt;SQLColumn&lt;String, Object&gt;&gt; getColumnsData()</t>
+  </si>
+  <si>
+    <t>public void setColumnData(String name, Object value)</t>
+  </si>
+  <si>
+    <t>public Object getColumnData(String column</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -300,15 +426,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -316,14 +454,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,7 +589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -436,7 +641,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -630,18 +835,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9547A7-2163-4B2D-88FA-0545FE94614C}">
-  <dimension ref="A1:H78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H78"/>
+    <sheetView tabSelected="1" topLeftCell="D110" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,35 +858,43 @@
     <col min="5" max="5" width="37.28515625" customWidth="1"/>
     <col min="6" max="6" width="40.7109375" customWidth="1"/>
     <col min="7" max="7" width="34.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -761,7 +974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -787,12 +1000,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -818,10 +1038,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -849,8 +1076,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
@@ -875,13 +1102,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
@@ -907,7 +1141,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
@@ -933,7 +1167,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
@@ -959,7 +1193,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
@@ -985,7 +1219,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
@@ -1010,8 +1244,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
@@ -1036,13 +1270,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
@@ -1067,8 +1308,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
@@ -1093,13 +1334,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
@@ -1125,7 +1373,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
@@ -1150,8 +1398,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
@@ -1176,13 +1424,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
@@ -1207,8 +1462,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
@@ -1233,13 +1488,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B30" t="s">
@@ -1264,13 +1526,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B32" t="s">
@@ -1295,8 +1564,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B33" t="s">
@@ -1321,13 +1590,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B35" t="s">
@@ -1352,13 +1628,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -1383,13 +1666,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39" t="s">
@@ -1415,7 +1705,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40" t="s">
@@ -1440,8 +1730,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41" t="s">
@@ -1466,13 +1756,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B43" t="s">
@@ -1498,7 +1795,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B44" t="s">
@@ -1523,8 +1820,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B45" t="s">
@@ -1549,13 +1846,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B47" t="s">
@@ -1581,7 +1885,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B48" t="s">
@@ -1607,7 +1911,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
@@ -1633,7 +1937,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B50" t="s">
@@ -1658,8 +1962,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B51" t="s">
@@ -1684,13 +1988,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B53" t="s">
@@ -1715,8 +2026,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B54" t="s">
@@ -1741,13 +2052,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B56" t="s">
@@ -1772,13 +2090,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B58" t="s">
@@ -1804,7 +2129,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B59" t="s">
@@ -1829,8 +2154,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B60" t="s">
@@ -1855,13 +2180,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B62" t="s">
@@ -1887,7 +2219,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B63" t="s">
@@ -1912,8 +2244,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B64" t="s">
@@ -1938,13 +2270,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B66" t="s">
@@ -1969,13 +2308,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B68" t="s">
@@ -2000,13 +2346,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B70" t="s">
@@ -2031,8 +2384,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B71" t="s">
@@ -2057,13 +2410,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B73" t="s">
@@ -2089,7 +2449,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B74" t="s">
@@ -2115,7 +2475,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B75" t="s">
@@ -2141,7 +2501,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B76" t="s">
@@ -2167,7 +2527,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B77" t="s">
@@ -2192,8 +2552,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B78" t="s">
@@ -2218,7 +2578,1084 @@
         <v>8</v>
       </c>
     </row>
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A120:H120"/>
+    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="A91:H91"/>
+    <mergeCell ref="A95:H95"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="A105:H105"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A22:H22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Lista_Cotejo_ServicioSocial.xlsx
+++ b/Lista_Cotejo_ServicioSocial.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauricio\Desktop\ServicioSocial\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A98921-25E4-4B76-9F55-974CE4BD50A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -461,53 +461,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -516,34 +479,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,18 +804,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection sqref="A1:H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +830,8 @@
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -899,261 +854,261 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1285,7 +1240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -1311,17 +1266,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -1349,7 +1304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1375,17 +1330,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -1439,7 +1394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -1465,17 +1420,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
@@ -1503,7 +1458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
@@ -1529,19 +1484,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
@@ -1567,17 +1522,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -1605,7 +1560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>39</v>
       </c>
@@ -1631,19 +1586,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>12</v>
       </c>
@@ -1669,19 +1624,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>34</v>
       </c>
@@ -1707,17 +1662,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
@@ -1771,7 +1726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>45</v>
       </c>
@@ -1797,17 +1752,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
@@ -1861,7 +1816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>47</v>
       </c>
@@ -1887,17 +1842,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
@@ -2003,7 +1958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>53</v>
       </c>
@@ -2029,17 +1984,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
@@ -2067,7 +2022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>56</v>
       </c>
@@ -2093,19 +2048,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>58</v>
       </c>
@@ -2131,17 +2086,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="12"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
@@ -2195,7 +2150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>62</v>
       </c>
@@ -2221,17 +2176,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="12"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
@@ -2285,7 +2240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -2311,19 +2266,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="12"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
@@ -2349,19 +2304,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="12"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -2387,17 +2342,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="12"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
@@ -2425,7 +2380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -2451,17 +2406,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="12"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
@@ -2593,7 +2548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>80</v>
       </c>
@@ -2619,19 +2574,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="12"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>82</v>
       </c>
@@ -2657,17 +2612,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="12"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
@@ -2695,7 +2650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>85</v>
       </c>
@@ -2721,17 +2676,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="12"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
@@ -2759,7 +2714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>88</v>
       </c>
@@ -2785,17 +2740,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="12"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
@@ -2875,7 +2830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>91</v>
       </c>
@@ -2901,17 +2856,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="12"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
@@ -2965,7 +2920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>91</v>
       </c>
@@ -2991,17 +2946,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="12"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
@@ -3081,7 +3036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>98</v>
       </c>
@@ -3107,17 +3062,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="12"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
@@ -3197,7 +3152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>91</v>
       </c>
@@ -3223,17 +3178,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="10" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="12"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
@@ -3287,7 +3242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>106</v>
       </c>
@@ -3313,17 +3268,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="10" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="12"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
@@ -3352,7 +3307,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B113" s="9" t="s">
@@ -3430,7 +3385,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B116" s="9" t="s">
@@ -3455,7 +3410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>113</v>
       </c>
@@ -3481,17 +3436,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="10" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="12"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
@@ -3545,7 +3500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>117</v>
       </c>
@@ -3571,17 +3526,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="10" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="12"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
@@ -3688,66 +3643,68 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A111:H111"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="A122:H122"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A88:H88"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="A82:H82"/>
     <mergeCell ref="A43:H43"/>
     <mergeCell ref="A47:H47"/>
@@ -3760,17 +3717,15 @@
     <mergeCell ref="A70:H70"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A111:H111"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="A122:H122"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A107:H107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
